--- a/work/error_rows/справочник_флк.xlsx
+++ b/work/error_rows/справочник_флк.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\витрины\какие-то_вендоры\error_rows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\repo\eremeev\work\error_rows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD77AC-0B74-43CE-93E0-DBF785FFF803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5756828-5981-4EEC-B472-625F55ABBB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C33F63E2-B067-4265-833D-D0950F8C14D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -32,171 +27,163 @@
     <t xml:space="preserve"> при дообогащении 1) в справочнике «Реестр медицинских организаций Российской Федерации» не был найден mo_oid</t>
   </si>
   <si>
+    <t>flk_01</t>
+  </si>
+  <si>
     <t xml:space="preserve"> при дообогащении 2) в справочнике «Справочник структурных подразделений» не был найден sp_oid</t>
   </si>
   <si>
+    <t>flk_02</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу region (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_03</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mo_oid (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_04</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mo_short_name (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_05</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу sp_oid (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_06</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу sp_name (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_07</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mp_id (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_08</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mp_fio (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_09</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу date_report (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_10</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mp_dolgnost (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_11</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу mp_stavka (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_12</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slots_type (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_13</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slots_referral (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_14</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slot_lenght (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_15</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slots_created (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_16</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slots_booked (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_17</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу slots_free_after_booked (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_18</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу visits_absence (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
+    <t>flk_19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> кол-во пропусков по столбцу visits_success (считается как разница между «сколько строк всего в отчете, см. подсчет статистики минус count по этому столбцу)</t>
   </si>
   <si>
-    <t xml:space="preserve"> В столбце mp_stavka и столбце slot_lenght стоят значения больше 0 (могут быть нецелемыми).</t>
+    <t>flk_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В столбце mp_stavka и столбце slot_lenght стоят значения больше 0 (могут быть нецелемыми)</t>
+  </si>
+  <si>
+    <t>flk_21</t>
   </si>
   <si>
     <t xml:space="preserve"> В столбцах slots_created, slots_booked, slots_free_after_booked, visits_absence, visits_success стоят целые, неотрицательные числа (может быть 0)</t>
   </si>
   <si>
+    <t>flk_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПОСТРОЧНАЯ ПРОВЕРКА:  в каждой строке в столбце slots_created значение больше или равно slots_booked + slots_free_after_booked</t>
+  </si>
+  <si>
+    <t>flk_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ПОСТРОЧНАЯ ПРОВЕРКА:  в каждой строке в столбце visits_absence значение меньше, чем slots_created</t>
+  </si>
+  <si>
+    <t>flk_24</t>
+  </si>
+  <si>
     <t xml:space="preserve"> в столбце slots_type используется значение Доступен для записи через ЕПГУ или Не доступен для записи через ЕПГУ</t>
   </si>
   <si>
-    <t>flk_01</t>
-  </si>
-  <si>
-    <t>flk_02</t>
-  </si>
-  <si>
-    <t>flk_03</t>
-  </si>
-  <si>
-    <t>flk_04</t>
-  </si>
-  <si>
-    <t>flk_05</t>
-  </si>
-  <si>
-    <t>flk_06</t>
-  </si>
-  <si>
-    <t>flk_07</t>
-  </si>
-  <si>
-    <t>flk_08</t>
-  </si>
-  <si>
-    <t>flk_09</t>
-  </si>
-  <si>
-    <t>flk_10</t>
-  </si>
-  <si>
-    <t>flk_11</t>
-  </si>
-  <si>
-    <t>flk_12</t>
-  </si>
-  <si>
-    <t>flk_13</t>
-  </si>
-  <si>
-    <t>flk_14</t>
-  </si>
-  <si>
-    <t>flk_15</t>
-  </si>
-  <si>
-    <t>flk_16</t>
-  </si>
-  <si>
-    <t>flk_17</t>
-  </si>
-  <si>
-    <t>flk_18</t>
-  </si>
-  <si>
-    <t>flk_19</t>
-  </si>
-  <si>
-    <t>flk_20</t>
-  </si>
-  <si>
-    <t>flk_21</t>
-  </si>
-  <si>
-    <t>flk_22</t>
-  </si>
-  <si>
-    <t>flk_23</t>
-  </si>
-  <si>
-    <t>flk_24</t>
-  </si>
-  <si>
     <t>flk_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ПОСТРОЧНАЯ ПРОВЕРКА:  в каждой строке в столбце slots_created значение больше или равно slots_booked + slots_free_after_booked</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ПОСТРОЧНАЯ ПРОВЕРКА:  в каждой строке в столбце visits_absence значение меньше, чем slots_created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,8 +214,8 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C66D6ACF-8BD0-41AA-A674-2397CDAC4848}"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{32571F4B-3C20-4CCF-8001-9AECBAB47930}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -242,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,20 +263,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -317,31 +304,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -369,26 +339,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,152 +350,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80844DCE-5501-40E3-AC3F-006EC7B0FE2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,214 +526,216 @@
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997DB697-051C-4E19-BD99-33FD63C0A140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -769,7 +747,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D358377-FBE3-405F-A042-1017FBB8A8CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
